--- a/zcurve.xlsx
+++ b/zcurve.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulte\OneDrive\Desktop\Research\Collab\z-curve project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulte\OneDrive\Dokument\GitHub\z-cuirve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A178EA-6526-46EC-BD75-79C6B2D14A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89AFAB4-2321-49B1-A27D-7DBB4CF9643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,18 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="6" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
